--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_2_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_2_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.789043162034545e-08</v>
+        <v>5.062002705891189e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>4.156036726172249e-07</v>
+        <v>6.065825708390093e-08</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.437377930004458</v>
+        <v>5.897127839255191</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.228517832529339, 7.646238027479577]</t>
+          <t>[3.487808993591784, 8.306446684918598]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.829055908508792e-06</v>
+        <v>2.084699568527526e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.658111817017584e-06</v>
+        <v>3.750292164816926e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.345947603339772</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049263, -0.8805264694746171]</t>
+          <t>[-1.547210796362541, -0.69184222601577]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.433740231566617e-08</v>
+        <v>4.07861643791918e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>4.867480463133234e-08</v>
+        <v>8.157232875838361e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>10.20236753227358</v>
+        <v>10.58006233290856</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.929959934158354, 11.474775130388814]</t>
+          <t>[9.285865315435952, 11.874259350381177]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.8026826826827</v>
+        <v>4.00722722722724</v>
       </c>
       <c r="X2" t="n">
-        <v>3.141941941941955</v>
+        <v>2.476376376376383</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.463423423423446</v>
+        <v>5.538078078078097</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.31974137676616e-08</v>
+        <v>4.312395995853535e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>4.156036726172249e-07</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0004276612933737933</v>
-      </c>
+        <v>6.065825708390093e-08</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.314399889148858</v>
+        <v>6.519191894863027</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.5143499784156713, 9.114449799882044]</t>
+          <t>[3.7928016248947163, 9.245582164831337]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.246691933820543e-05</v>
+        <v>3.750292164816926e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.246691933820543e-05</v>
+        <v>3.750292164816926e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.9874475407679633</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.3396581285578097]</t>
+          <t>[0.5723422051585008, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.509408213564491e-05</v>
+        <v>4.192374915001906e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>3.509408213564491e-05</v>
+        <v>4.192374915001906e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>10.47735155258817</v>
+        <v>10.24158687569598</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.019818018180402, 11.93488508699593]</t>
+          <t>[8.80943303589412, 11.67374071549784]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.91811811811829</v>
+        <v>19.62980980980998</v>
       </c>
       <c r="X3" t="n">
-        <v>18.33213213213229</v>
+        <v>18.09113113113128</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.50410410410429</v>
+        <v>21.16848848848867</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_2_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_2_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.062002705891189e-09</v>
+        <v>3.470150167217412e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>6.065825708390093e-08</v>
+        <v>2.873655027649071e-08</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.897127839255191</v>
+        <v>6.016376335474856</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.487808993591784, 8.306446684918598]</t>
+          <t>[3.773979939374673, 8.25877273157504]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.084699568527526e-06</v>
+        <v>2.126905931376655e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.750292164816926e-06</v>
+        <v>4.253811862753309e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.119526511189155</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.547210796362541, -0.69184222601577]</t>
+          <t>[-1.8365266363327724, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.07861643791918e-07</v>
+        <v>2.604640947367898e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>8.157232875838361e-07</v>
+        <v>5.209281894735796e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>10.58006233290856</v>
+        <v>10.4617556144597</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.285865315435952, 11.874259350381177]</t>
+          <t>[9.157944436981943, 11.765566791937452]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.00722722722724</v>
+        <v>5.020380380380395</v>
       </c>
       <c r="X2" t="n">
-        <v>2.476376376376383</v>
+        <v>3.496336336336346</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.538078078078097</v>
+        <v>6.544424424424444</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.312395995853535e-09</v>
+        <v>1.026425500150197e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>6.065825708390093e-08</v>
+        <v>2.498433229850097e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.519191894863027</v>
+        <v>6.73912758683352</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.7928016248947163, 9.245582164831337]</t>
+          <t>[4.15297578814708, 9.325279385519961]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.750292164816926e-06</v>
+        <v>5.027995515494155e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.750292164816926e-06</v>
+        <v>5.027995515494155e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9874475407679633</v>
+        <v>0.4717106086471157</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 1.4025528763774258]</t>
+          <t>[0.05660527303765317, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.192374915001906e-06</v>
+        <v>0.02605649123231135</v>
       </c>
       <c r="R3" t="n">
-        <v>4.192374915001906e-06</v>
+        <v>0.02605649123231135</v>
       </c>
       <c r="S3" t="n">
-        <v>10.24158687569598</v>
+        <v>10.3460764657294</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.80943303589412, 11.67374071549784]</t>
+          <t>[8.919757856078586, 11.772395075380206]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.62980980980998</v>
+        <v>21.43051051051068</v>
       </c>
       <c r="X3" t="n">
-        <v>18.09113113113128</v>
+        <v>19.89975975975992</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.16848848848867</v>
+        <v>22.96126126126145</v>
       </c>
     </row>
   </sheetData>
